--- a/data/trans_orig/GENERO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/GENERO-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Género en Barcelona</t>
+          <t>Género en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/GENERO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/GENERO-Edad-trans_orig.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2472</t>
+          <t>2314</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>282</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>606</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57854</t>
+          <t>58215</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61261</t>
+          <t>61258</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>53335</t>
+          <t>51904</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>68083</t>
+          <t>67608</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>53,57%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62201</t>
+          <t>62359</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>55978</t>
+          <t>56853</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>71275</t>
+          <t>72436</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>57,39%</t>
         </is>
       </c>
     </row>
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>216</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>123365</t>
+          <t>123424</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>127517</t>
+          <t>127511</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>114040</t>
+          <t>114424</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>137788</t>
+          <t>138209</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>45,46%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>54,91%</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3431</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>112620</t>
+          <t>112316</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>136609</t>
+          <t>135981</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>54,02%</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>118897</t>
+          <t>119119</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>143744</t>
+          <t>145090</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>53,58%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>136648</t>
+          <t>136930</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>126902</t>
+          <t>125434</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>151399</t>
+          <t>151131</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>55,91%</t>
+          <t>55,81%</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>107510</t>
+          <t>108589</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>131128</t>
+          <t>131783</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>55,56%</t>
         </is>
       </c>
     </row>
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>106055</t>
+          <t>105400</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>129673</t>
+          <t>128594</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>54,22%</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2745,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>104057</t>
+          <t>104912</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>126704</t>
+          <t>128145</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>59,92%</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>87170</t>
+          <t>85729</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>109817</t>
+          <t>108962</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>50,95%</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>78884</t>
+          <t>78715</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>97318</t>
+          <t>97387</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>61,85%</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>60144</t>
+          <t>60075</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>78578</t>
+          <t>78747</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>4207</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>111839</t>
+          <t>112029</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>105101</t>
+          <t>105156</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>124488</t>
+          <t>124200</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>57,35%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>67,89%</t>
+          <t>67,73%</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>64569</t>
+          <t>64799</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2336</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>58883</t>
+          <t>59171</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>78270</t>
+          <t>78215</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>42,65%</t>
         </is>
       </c>
     </row>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>3604</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>970</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>4722</t>
+          <t>5747</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3980,12 +3980,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>6372</t>
+          <t>6329</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>4867</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>752707</t>
+          <t>752359</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>757709</t>
+          <t>757558</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4093,12 +4093,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>727370</t>
+          <t>728572</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>784584</t>
+          <t>787092</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>54,64%</t>
         </is>
       </c>
     </row>
@@ -4156,12 +4156,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>675572</t>
+          <t>675799</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>681041</t>
+          <t>681012</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4226,12 +4226,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>651289</t>
+          <t>649551</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>709989</t>
+          <t>708721</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>49,2%</t>
         </is>
       </c>
     </row>
